--- a/个人财务管理.xlsx
+++ b/个人财务管理.xlsx
@@ -10569,7 +10569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
@@ -17434,28 +17434,28 @@
       <c r="B95" s="125" t="n">
         <v>44823.60512731481</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="26" t="n">
         <v>858.08</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="26" t="inlineStr">
         <is>
           <t>还款</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="26" t="inlineStr">
         <is>
           <t>支付宝-还款</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" s="26" t="inlineStr">
         <is>
           <t>支付宝-花呗借呗还款</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17468,28 +17468,28 @@
       <c r="B96" s="125" t="n">
         <v>44823.70995370371</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="D96" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17502,28 +17502,28 @@
       <c r="B97" s="125" t="n">
         <v>44823.34599537037</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="26" t="n">
         <v>3036.76</v>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="D97" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="26" t="inlineStr">
         <is>
           <t>代收付</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="26" t="inlineStr">
         <is>
           <t>先锋国际融资租赁有限公司</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="26" t="inlineStr">
         <is>
           <t>租金</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17536,28 +17536,28 @@
       <c r="B98" s="125" t="n">
         <v>44823.87108796297</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="D98" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17570,28 +17570,28 @@
       <c r="B99" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="D99" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" s="26" t="inlineStr">
         <is>
           <t>支付宝-吕强</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17604,28 +17604,28 @@
       <c r="B100" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="26" t="n">
         <v>106.03</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="D100" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" s="26" t="inlineStr">
         <is>
           <t>网银在线-京东商城业务</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17638,28 +17638,28 @@
       <c r="B101" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="26" t="n">
         <v>4.9</v>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" s="26" t="inlineStr">
         <is>
           <t>支付宝-南昌蓝之润科技有限公司</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17672,28 +17672,28 @@
       <c r="B102" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17706,28 +17706,28 @@
       <c r="B103" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C103" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17740,28 +17740,28 @@
       <c r="B104" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="26" t="n">
         <v>134</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="inlineStr">
+      <c r="D104" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G104" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17774,28 +17774,28 @@
       <c r="B105" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="26" t="n">
         <v>13.6</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="inlineStr">
+      <c r="D105" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" s="26" t="inlineStr">
         <is>
           <t>支付宝-成都红旗连锁股份有限公司</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17808,28 +17808,28 @@
       <c r="B106" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="26" t="n">
         <v>16.8</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="D106" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G106" s="26" t="inlineStr">
         <is>
           <t>支付宝-川西优选</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17842,28 +17842,28 @@
       <c r="B107" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="D107" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -17876,28 +17876,504 @@
       <c r="B108" s="125" t="n">
         <v>44823</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="26" t="n">
         <v>275.3</v>
       </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
+      <c r="D108" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G108" s="26" t="inlineStr">
         <is>
           <t>支付宝-川西优选</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B109" s="125" t="n">
+        <v>44825.60512731481</v>
+      </c>
+      <c r="C109" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B110" s="125" t="n">
+        <v>44825.70995370371</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B111" s="125" t="n">
+        <v>44825.34599537037</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B112" s="125" t="n">
+        <v>44825.87108796297</v>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B113" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B114" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C114" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B115" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B116" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>79</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B117" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>79</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B118" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C118" t="n">
+        <v>134</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B119" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B120" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B121" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C121" t="n">
+        <v>79</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B122" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C122" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>

--- a/个人财务管理.xlsx
+++ b/个人财务管理.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="收入记录" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="财务记录" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="数据库" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="财务透视" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="收入记录" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="财务记录" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="数据库" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="财务透视" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2018_12_28" localSheetId="0">收入记录!$B$114:$E$114</definedName>
@@ -76,8 +76,8 @@
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="0" r:id="rId5"/>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1766,7 +1766,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <pivotSource>
     <name>[个人财务管理.xlsx]收入记录!数据透视表1</name>
     <fmtId val="0"/>
@@ -1775,9 +1775,9 @@
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
               <a:t>None</a:t>
             </a:r>
@@ -1787,8 +1787,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1798,10 +1798,10 @@
       <pivotFmt>
         <idx val="0"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -1809,7 +1809,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1840,10 +1840,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1925,8 +1925,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1938,9 +1938,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1976,7 +1976,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1993,16 +1993,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2031,16 +2031,16 @@
       <legendPos val="r"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -2068,7 +2068,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <pivotSource>
     <name>[个人财务管理.xlsx]收入记录!数据透视表2</name>
     <fmtId val="0"/>
@@ -2077,9 +2077,9 @@
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
               <a:t>None</a:t>
             </a:r>
@@ -2089,8 +2089,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -2100,10 +2100,10 @@
       <pivotFmt>
         <idx val="0"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2111,7 +2111,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2142,10 +2142,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2251,8 +2251,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2264,9 +2264,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2302,7 +2302,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2319,16 +2319,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2357,16 +2357,16 @@
       <legendPos val="r"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -2394,7 +2394,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <pivotSource>
     <name>[个人财务管理.xlsx]财务透视!数据透视表1</name>
     <fmtId val="0"/>
@@ -2404,10 +2404,10 @@
       <pivotFmt>
         <idx val="0"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2415,7 +2415,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2427,10 +2427,10 @@
       <pivotFmt>
         <idx val="1"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent3"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2438,7 +2438,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2450,10 +2450,10 @@
       <pivotFmt>
         <idx val="2"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2461,7 +2461,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2470,10 +2470,10 @@
       <pivotFmt>
         <idx val="3"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2481,7 +2481,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2493,10 +2493,10 @@
       <pivotFmt>
         <idx val="4"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -2504,7 +2504,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2535,10 +2535,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2634,10 +2634,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2733,10 +2733,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2823,10 +2823,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2932,8 +2932,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2945,9 +2945,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2983,7 +2983,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -3000,16 +3000,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3038,16 +3038,16 @@
       <legendPos val="r"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3075,7 +3075,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>5</col>
@@ -3095,9 +3095,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3122,9 +3122,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3134,7 +3134,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>6</col>
@@ -3154,9 +3154,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3166,8 +3166,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="差旅台账"/>
     </sheetNames>
@@ -6823,7 +6823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10555,21 +10555,21 @@
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
@@ -17910,28 +17910,28 @@
       <c r="B109" s="125" t="n">
         <v>44825.60512731481</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="26" t="n">
         <v>858.08</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="D109" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="26" t="inlineStr">
         <is>
           <t>还款</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="26" t="inlineStr">
         <is>
           <t>支付宝-还款</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G109" s="26" t="inlineStr">
         <is>
           <t>支付宝-花呗借呗还款</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17944,28 +17944,28 @@
       <c r="B110" s="125" t="n">
         <v>44825.70995370371</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -17978,28 +17978,28 @@
       <c r="B111" s="125" t="n">
         <v>44825.34599537037</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="26" t="n">
         <v>3036.76</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="D111" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="26" t="inlineStr">
         <is>
           <t>代收付</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="26" t="inlineStr">
         <is>
           <t>先锋国际融资租赁有限公司</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" s="26" t="inlineStr">
         <is>
           <t>租金</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -18012,28 +18012,28 @@
       <c r="B112" s="125" t="n">
         <v>44825.87108796297</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="D112" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" s="26" t="inlineStr">
         <is>
           <t>财付通-微信转账</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" s="26" t="inlineStr">
         <is>
           <t>建设银行储蓄卡</t>
         </is>
@@ -18046,28 +18046,28 @@
       <c r="B113" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="D113" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" s="26" t="inlineStr">
         <is>
           <t>支付宝-吕强</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18080,28 +18080,28 @@
       <c r="B114" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="26" t="n">
         <v>106.03</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="D114" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G114" s="26" t="inlineStr">
         <is>
           <t>网银在线-京东商城业务</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18114,28 +18114,28 @@
       <c r="B115" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="C115" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="26" t="n">
         <v>4.9</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" s="26" t="inlineStr">
         <is>
           <t>支付宝-南昌蓝之润科技有限公司</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18148,28 +18148,28 @@
       <c r="B116" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="C116" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G116" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18182,28 +18182,28 @@
       <c r="B117" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="C117" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="26" t="inlineStr">
         <is>
           <t>退货退税</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18216,28 +18216,28 @@
       <c r="B118" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="26" t="n">
         <v>134</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="D118" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18250,28 +18250,28 @@
       <c r="B119" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="26" t="n">
         <v>13.6</v>
       </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="D119" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G119" s="26" t="inlineStr">
         <is>
           <t>支付宝-成都红旗连锁股份有限公司</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18284,28 +18284,28 @@
       <c r="B120" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="26" t="n">
         <v>16.8</v>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="D120" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G120" s="26" t="inlineStr">
         <is>
           <t>支付宝-川西优选</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18318,28 +18318,28 @@
       <c r="B121" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="26" t="n">
         <v>79</v>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G121" s="26" t="inlineStr">
         <is>
           <t>支付宝-西安捷宸贸易有限公司</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" s="26" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18352,28 +18352,6140 @@
       <c r="B122" s="125" t="n">
         <v>44825</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="26" t="n">
         <v>275.3</v>
       </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
+      <c r="D122" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="26" t="inlineStr">
         <is>
           <t>消费</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" s="26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G122" s="26" t="inlineStr">
         <is>
           <t>支付宝-川西优选</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B123" s="125" t="n">
+        <v>44842.60512731481</v>
+      </c>
+      <c r="C123" s="26" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D123" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="26" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F123" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G123" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H123" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B124" s="125" t="n">
+        <v>44842.70995370371</v>
+      </c>
+      <c r="C124" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D124" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F124" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G124" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H124" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B125" s="125" t="n">
+        <v>44842.34599537037</v>
+      </c>
+      <c r="C125" s="26" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D125" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="26" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F125" s="26" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G125" s="26" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H125" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B126" s="125" t="n">
+        <v>44842.87108796297</v>
+      </c>
+      <c r="C126" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D126" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F126" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G126" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H126" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B127" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C127" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D127" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F127" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G127" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H127" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B128" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C128" s="26" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D128" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F128" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G128" s="26" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H128" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B129" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C129" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E129" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F129" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G129" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H129" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B130" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C130" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E130" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F130" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G130" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H130" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B131" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C131" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E131" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F131" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G131" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H131" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B132" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C132" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="D132" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F132" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G132" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H132" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B133" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C133" s="26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D133" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F133" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G133" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H133" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B134" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C134" s="26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D134" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F134" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G134" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H134" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B135" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C135" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D135" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F135" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G135" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H135" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B136" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C136" s="26" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D136" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F136" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G136" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H136" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B137" s="125" t="n">
+        <v>44842.60512731481</v>
+      </c>
+      <c r="C137" s="26" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D137" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="26" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F137" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G137" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H137" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B138" s="125" t="n">
+        <v>44842.70995370371</v>
+      </c>
+      <c r="C138" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D138" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F138" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G138" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H138" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B139" s="125" t="n">
+        <v>44842.34599537037</v>
+      </c>
+      <c r="C139" s="26" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D139" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="26" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F139" s="26" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G139" s="26" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H139" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B140" s="125" t="n">
+        <v>44842.87108796297</v>
+      </c>
+      <c r="C140" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F140" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G140" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H140" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B141" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C141" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D141" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F141" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G141" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H141" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B142" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C142" s="26" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D142" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F142" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G142" s="26" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H142" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B143" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C143" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E143" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F143" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G143" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H143" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B144" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C144" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E144" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F144" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G144" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H144" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B145" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C145" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E145" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F145" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G145" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H145" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B146" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C146" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="D146" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F146" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G146" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H146" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B147" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C147" s="26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D147" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F147" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G147" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H147" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B148" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C148" s="26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D148" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F148" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G148" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H148" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B149" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C149" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D149" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F149" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G149" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H149" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B150" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C150" s="26" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D150" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F150" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G150" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H150" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B151" s="125" t="n">
+        <v>44842.60512731481</v>
+      </c>
+      <c r="C151" s="26" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D151" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="26" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F151" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G151" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H151" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B152" s="125" t="n">
+        <v>44842.70995370371</v>
+      </c>
+      <c r="C152" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D152" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F152" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G152" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H152" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B153" s="125" t="n">
+        <v>44842.34599537037</v>
+      </c>
+      <c r="C153" s="26" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D153" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="26" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F153" s="26" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G153" s="26" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H153" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B154" s="125" t="n">
+        <v>44842.87108796297</v>
+      </c>
+      <c r="C154" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D154" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F154" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G154" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H154" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B155" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C155" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D155" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F155" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G155" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H155" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B156" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C156" s="26" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D156" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F156" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G156" s="26" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H156" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B157" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C157" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E157" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F157" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G157" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H157" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B158" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C158" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E158" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F158" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G158" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H158" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B159" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C159" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E159" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F159" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G159" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H159" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B160" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C160" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="D160" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F160" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G160" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H160" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B161" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C161" s="26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D161" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F161" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G161" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H161" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B162" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C162" s="26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D162" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F162" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G162" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H162" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B163" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C163" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D163" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F163" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G163" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H163" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B164" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C164" s="26" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D164" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F164" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G164" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H164" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B165" s="125" t="n">
+        <v>44842.60512731481</v>
+      </c>
+      <c r="C165" s="26" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D165" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="26" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F165" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G165" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H165" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B166" s="125" t="n">
+        <v>44842.70995370371</v>
+      </c>
+      <c r="C166" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D166" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F166" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G166" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H166" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B167" s="125" t="n">
+        <v>44842.34599537037</v>
+      </c>
+      <c r="C167" s="26" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D167" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="26" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F167" s="26" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G167" s="26" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H167" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B168" s="125" t="n">
+        <v>44842.87108796297</v>
+      </c>
+      <c r="C168" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D168" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F168" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G168" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H168" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B169" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C169" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D169" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F169" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G169" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H169" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B170" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C170" s="26" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D170" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F170" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G170" s="26" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H170" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B171" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C171" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E171" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F171" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G171" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H171" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B172" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C172" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E172" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F172" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G172" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H172" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B173" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C173" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E173" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F173" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G173" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H173" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B174" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C174" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="D174" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F174" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G174" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H174" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B175" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C175" s="26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D175" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F175" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G175" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H175" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B176" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C176" s="26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D176" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F176" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G176" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H176" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B177" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C177" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D177" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F177" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G177" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H177" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B178" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C178" s="26" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D178" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F178" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G178" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H178" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B179" s="125" t="n">
+        <v>44842.60512731481</v>
+      </c>
+      <c r="C179" s="26" t="n">
+        <v>858.08</v>
+      </c>
+      <c r="D179" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="26" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F179" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-还款</t>
+        </is>
+      </c>
+      <c r="G179" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-花呗借呗还款</t>
+        </is>
+      </c>
+      <c r="H179" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B180" s="125" t="n">
+        <v>44842.70995370371</v>
+      </c>
+      <c r="C180" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D180" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F180" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G180" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H180" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="125" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B181" s="125" t="n">
+        <v>44842.34599537037</v>
+      </c>
+      <c r="C181" s="26" t="n">
+        <v>3036.76</v>
+      </c>
+      <c r="D181" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="26" t="inlineStr">
+        <is>
+          <t>代收付</t>
+        </is>
+      </c>
+      <c r="F181" s="26" t="inlineStr">
+        <is>
+          <t>先锋国际融资租赁有限公司</t>
+        </is>
+      </c>
+      <c r="G181" s="26" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="H181" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="125" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B182" s="125" t="n">
+        <v>44842.87108796297</v>
+      </c>
+      <c r="C182" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D182" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F182" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G182" s="26" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H182" s="26" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B183" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C183" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D183" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F183" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G183" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-吕强</t>
+        </is>
+      </c>
+      <c r="H183" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B184" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C184" s="26" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="D184" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F184" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G184" s="26" t="inlineStr">
+        <is>
+          <t>网银在线-京东商城业务</t>
+        </is>
+      </c>
+      <c r="H184" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B185" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C185" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" s="26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E185" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F185" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G185" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-南昌蓝之润科技有限公司</t>
+        </is>
+      </c>
+      <c r="H185" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B186" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C186" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E186" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F186" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G186" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H186" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="125" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B187" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C187" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E187" s="26" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F187" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G187" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H187" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="125" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B188" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C188" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="D188" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F188" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G188" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H188" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B189" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C189" s="26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D189" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F189" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G189" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-成都红旗连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="H189" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B190" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C190" s="26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D190" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F190" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G190" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H190" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B191" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C191" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D191" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F191" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G191" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H191" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="125" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B192" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C192" s="26" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="D192" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="26" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F192" s="26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G192" s="26" t="inlineStr">
+        <is>
+          <t>支付宝-川西优选</t>
+        </is>
+      </c>
+      <c r="H192" s="26" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B193" s="125" t="n">
+        <v>44842.37641203704</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>财付通-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>财付通-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B194" s="125" t="n">
+        <v>44842.64597222222</v>
+      </c>
+      <c r="C194" t="n">
+        <v>59</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>财付通-微信转账</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="125" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B195" s="125" t="n">
+        <v>44842.67168981482</v>
+      </c>
+      <c r="C195" t="n">
+        <v>550</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>支付宝-支付宝-消费-奚奇</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>支付宝-支付宝-消费-奚奇</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B196" s="125" t="n">
+        <v>44842.0347800926</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>利息存入</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B197" s="125" t="n">
+        <v>44842.31790509259</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4211.87</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>信用卡约定还款</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>人民币应收清算户</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>信用卡预约还款(信用卡尾号7113)</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B198" s="125" t="n">
+        <v>44842.79577546296</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>电子汇入</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>谭屹</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>电子汇入</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B199" s="125" t="n">
+        <v>44842.89611111111</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2717.63</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>信用卡一键还款</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>信用卡一键还款</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="125" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B200" s="125" t="n">
+        <v>44842.62740740741</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>转账存入</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>刘桂凤</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>中国建设银行股份有限公司湖南省分行头寸机构</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="125" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B201" s="125" t="n">
+        <v>44842.63214120371</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3697.43</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>支付机构提现</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>财付通支付科技有限公司</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>微信零钱提现</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="125" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B202" s="125" t="n">
+        <v>44842.65706018519</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8700</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>跨行转出</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>谭屹</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>跨行转出</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="125" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B203" s="125" t="n">
+        <v>44842.51252314815</v>
+      </c>
+      <c r="C203" t="n">
+        <v>143.19</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>ETC通行费</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>信联客车ETC批扣账户</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>高速ETC记账卡批量扣款</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="125" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B204" s="125" t="n">
+        <v>44842.51252314815</v>
+      </c>
+      <c r="C204" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ETC通行费</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>信联客车ETC批扣账户</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>高速ETC记账卡批量扣款</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B205" s="125" t="n">
+        <v>44842.49429398148</v>
+      </c>
+      <c r="C205" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>支付宝-支付宝-消费-谢茜</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>支付宝-支付宝-消费-谢茜</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B206" s="125" t="n">
+        <v>44842.62743055556</v>
+      </c>
+      <c r="C206" t="n">
+        <v>6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>财付通-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>财付通-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B207" s="125" t="n">
+        <v>44842.65962962963</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-扫二维码付款</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="125" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B208" s="125" t="n">
+        <v>44842.62234953704</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>399</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>电子汇入</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>成都恒悦行汽车销售服务有限公司</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>gds98ar1KD_退谭屹399周年庆活动门票费</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="125" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B209" s="125" t="n">
+        <v>44842.74333333333</v>
+      </c>
+      <c r="C209" t="n">
+        <v>156.15</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>ETC通行费</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>信联客车ETC批扣账户</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>高速ETC记账卡批量扣款</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="125" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B210" s="125" t="n">
+        <v>44842.9855787037</v>
+      </c>
+      <c r="C210" t="n">
+        <v>12</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>支付宝-浙江菜鸟供应链管理有限公司</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>支付宝-浙江菜鸟供应链管理有限公司</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B211" s="125" t="n">
+        <v>44842.39144675926</v>
+      </c>
+      <c r="C211" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>网银在线-白条合并还款网银平台</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>网银在线-白条合并还款网银平台</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B212" s="125" t="n">
+        <v>44842.54392361111</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>支付宝-张云桂</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>支付宝-张云桂</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B213" s="125" t="n">
+        <v>44842.65150462963</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6726.42</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>代理付款</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>中铁二院成都工程检测有限责任公司</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>9月奖金</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B214" s="125" t="n">
+        <v>44842.65171296296</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>876.6</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>代理付款</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>中铁二院成都工程检测有限责任公司</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>9月工资</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B215" s="125" t="n">
+        <v>44842.40994212963</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>代理付款</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>中铁二院成都工程检测有限责任公司</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>奖金</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B216" s="125" t="n">
+        <v>44842.74457175926</v>
+      </c>
+      <c r="C216" t="n">
+        <v>159.09</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>ETC通行费</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>信联客车ETC批扣账户</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>高速ETC记账卡批量扣款</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="125" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B217" s="125" t="n">
+        <v>44842.47918981482</v>
+      </c>
+      <c r="C217" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>网银在线-京东金融</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>网银在线-京东金融</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="125" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B218" s="125" t="n">
+        <v>44842.21685185185</v>
+      </c>
+      <c r="C218" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>还款</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>通联支付网络服务股份有限公司-交通银行股份有限公司太平洋信用</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>通联支付网络服务股份有限公司-交通银行股份有限公司太平洋信用</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="125" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B219" s="125" t="n">
+        <v>44842.46273148148</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>ATM取款</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>建设银行四川省分行ATM510000400438</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="125" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B220" s="125" t="n">
+        <v>44842.80373842592</v>
+      </c>
+      <c r="C220" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>支付宝-平江县豆有味食品有限公司</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>支付宝-平江县豆有味食品有限公司</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>建设银行储蓄卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="125" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B221" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C221" t="n">
+        <v>23</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>财付通-阳阳便利店成都北湖二</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="125" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B222" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C222" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>支付宝-上海寻梦信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="125" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B223" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>支付宝-阳阳便利店成都北湖二期店</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="125" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B224" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>支付宝-上海寻梦信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="125" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B225" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C225" t="n">
+        <v>12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>支付宝-金里</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="125" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B226" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C226" t="n">
+        <v>124</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>支付宝-猫儿鱼</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="125" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B227" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>财付通-重庆市沙坪坝区公共停</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="125" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B228" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="125" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B229" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="125" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B230" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C230" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>支付宝-重庆市沙坪坝区聚原综合服务社</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="125" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B231" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C231" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>支付宝-绝味食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="125" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B232" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>支付宝-App Store _ Apple Music</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B233" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>支付宝-佰刻便利店重庆土星店</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B234" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆城投金卡好运通有限公</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B235" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆张哥小糍粑</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B236" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C236" t="n">
+        <v>32</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>财付通-喜茶-重庆</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B237" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>支付宝-刘雪莹</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B238" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆市沙坪坝区公共停车管</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B239" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C239" t="n">
+        <v>28</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>财付通-老谢家饮食店</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="125" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B240" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C240" t="n">
+        <v>38</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-渝中区老谢家饮食店</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="125" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B241" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>支付宝-泰州纯仕新材料有限公司</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="125" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B242" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>费用</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>龙卡安心用</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="125" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B243" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="125" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B244" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="125" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B245" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C245" t="n">
+        <v>79</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>支付宝-重庆市沙坪坝区牛香阁调餐饮店</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="125" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B246" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="125" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B247" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C247" t="n">
+        <v>505</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-中国石油天然气股份有限公</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="125" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B248" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C248" t="n">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>财付通-重庆市沙坪坝区公共停</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B249" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>财付通-科拓车场</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B250" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C250" t="n">
+        <v>11</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>财付通-捷停车</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B251" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>支付宝-义乌迎微贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B252" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆市沙坪坝区公共停车管</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B253" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C253" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>支付宝-虹宇商贸(广州)有限公司</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B254" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C254" t="n">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>财付通-重庆市沙坪坝区公共停</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B255" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C255" t="n">
+        <v>83</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆市沙坪坝区牛香阁调餐</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B256" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C256" t="n">
+        <v>17</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>财付通-伴尔咖啡</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="125" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B257" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C257" t="n">
+        <v>104</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>财付通-猫儿鱼</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B258" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>财付通-京东便利店</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B259" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>支付宝-重庆城市通卡支付有限责任公司</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B260" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>财付通-重庆城投金卡好运通有</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B261" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C261" t="n">
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>财付通-京东便利店</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B262" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>财付通-中盛</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B263" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C263" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆工业职业技术学院合作</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B264" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C264" t="n">
+        <v>14</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>财付通-顺丰速运</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="125" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B265" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C265" t="n">
+        <v>32</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>财付通-重庆小面王</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="125" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B266" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C266" t="n">
+        <v>11</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>财付通-茶甘饭软</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="125" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B267" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>财付通-茶甘饭软</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="125" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B268" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C268" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>财付通-luckincoffee瑞幸咖啡</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B269" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C269" t="n">
+        <v>20</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>财付通-招商局物业管理有限公</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B270" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C270" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>财付通-北碚区强超食品店</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B271" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C271" t="n">
+        <v>179</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-重庆市滔搏商贸有限公司南</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B272" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C272" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>支付宝-杭州小黑盒信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B273" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C273" t="n">
+        <v>270</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-渝中区赵姐服饰经营部</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B274" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C274" t="n">
+        <v>370</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>支付宝-中国石油天然气股份有限公司</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="125" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B275" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>55</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>支付宝-西安捷宸贸易有限公司</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="125" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B276" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>财付通-重庆城投金卡好运通有</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="125" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B277" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C277" t="n">
+        <v>13</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-招商局物业管理有限公司重</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="125" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B278" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1050.2</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-山姆自助收银</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="125" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B279" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>财付通-重庆礼嘉天街(停车场)</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B280" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2717.63</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>存入</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>手机银行 一键转账还款  谭屹</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B281" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4211.87</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>存入</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>约定还款 谭屹</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B282" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C282" t="n">
+        <v>334</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>财付通-壳牌</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B283" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-luckincoffee瑞幸咖啡</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B284" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C284" t="n">
+        <v>13</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>财付通-茶甘饭软</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="125" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B285" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C285" t="n">
+        <v>21</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>支付宝-云上艾珀（贵州）技术有限公司</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B286" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C286" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-滴滴出行</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B287" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C287" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>支付宝-杭州今日卖场供应链管理有限公司</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B288" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C288" t="n">
+        <v>13</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>财付通-茶甘饭软</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B289" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C289" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>财付通-滴滴出行</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B290" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>172</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>支付宝-中国铁路网络有限公司</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="125" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B291" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>172</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>退货退税</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>支付宝-中国铁路网络有限公司</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="125" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B292" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C292" t="n">
+        <v>200</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>财付通-中国石油四川成都销售</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="125" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B293" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C293" t="n">
+        <v>13</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>财付通-茶甘饭软</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="125" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B294" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>财付通-山姆会员店</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="125" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B295" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C295" t="n">
+        <v>17</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>财付通-隆江猪脚饭成都北斗七</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="125" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B296" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C296" t="n">
+        <v>349</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>支付宝-大龙传承火锅（双林路店）</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="125" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B297" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C297" t="n">
+        <v>60</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>财付通-捷停车</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="125" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B298" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1786.1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>支付宝-沃尔玛(中国)投资有限公司</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B299" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C299" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>财付通-么么超市</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B300" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>财付通-微信支付-北京摩拜科技有限公司</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B301" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C301" t="n">
+        <v>72</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>财付通-什夹婆乌鸡米线</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>建设银行信用卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="125" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B302" s="125" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C302" t="n">
+        <v>430</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>消费</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>支付宝-中国铁路网络有限公司</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
         <is>
           <t>建设银行信用卡</t>
         </is>
@@ -18400,13 +24512,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19193,27 +25305,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
   <tableParts count="15">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet9">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19657,6 +25769,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>